--- a/Income/FCX_inc.xlsx
+++ b/Income/FCX_inc.xlsx
@@ -2243,16 +2243,16 @@
         <v>0.1738</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1225</v>
+        <v>0.1292</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0682</v>
+        <v>0.0755</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0464</v>
+        <v>0.0536</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0821</v>
+        <v>0.0887</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0802</v>
@@ -2370,16 +2370,16 @@
         <v>0.1757</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1116</v>
+        <v>0.1108</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0454</v>
+        <v>0.0451</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0219</v>
+        <v>0.0218</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0763</v>
+        <v>0.0758</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0446</v>
@@ -2497,16 +2497,16 @@
         <v>0.1295</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0515</v>
+        <v>0.0512</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0138</v>
+        <v>-0.0137</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.0361</v>
+        <v>-0.0358</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0214</v>
+        <v>0.0212</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-0.017</v>
@@ -2624,16 +2624,16 @@
         <v>0.0425</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-0.0082</v>
+        <v>-0.0078</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-0.0499</v>
+        <v>-0.0492</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-0.0564</v>
+        <v>-0.0558</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.017</v>
+        <v>-0.0166</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.0165</v>
@@ -2751,16 +2751,16 @@
         <v>0.0761</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-0.03</v>
+        <v>-0.0298</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-0.1295</v>
+        <v>-0.1285</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-0.129</v>
+        <v>-0.1281</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-0.0818</v>
+        <v>-0.0812</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>-0.0514</v>
@@ -4302,16 +4302,16 @@
         <v>0.2448</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.1983</v>
+        <v>0.2334</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.1367</v>
+        <v>0.1738</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.1077</v>
+        <v>0.1432</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.1404</v>
+        <v>0.1738</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.145</v>
@@ -4429,16 +4429,16 @@
         <v>0.2175</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.1381</v>
+        <v>0.1372</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.0657</v>
+        <v>0.0652</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.0671</v>
+        <v>0.0667</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.1036</v>
+        <v>0.1029</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0.0882</v>
